--- a/data_year/zb/运输和邮电/按货类分国家铁路货物运输量/货物周转量.xlsx
+++ b/data_year/zb/运输和邮电/按货类分国家铁路货物运输量/货物周转量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,1045 +513,569 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2946.71</v>
+        <v>3741.51139</v>
       </c>
       <c r="C2" t="n">
-        <v>611.86</v>
+        <v>1193.52668</v>
       </c>
       <c r="D2" t="n">
-        <v>588.08</v>
+        <v>340.40987</v>
       </c>
       <c r="E2" t="n">
-        <v>64.72</v>
+        <v>150.13592</v>
       </c>
       <c r="F2" t="n">
-        <v>167.39</v>
+        <v>183.7345</v>
       </c>
       <c r="G2" t="n">
-        <v>402.15</v>
+        <v>939.5317700000001</v>
       </c>
       <c r="H2" t="n">
-        <v>3806.05</v>
+        <v>10015.5128</v>
       </c>
       <c r="I2" t="n">
-        <v>93.83</v>
+        <v>100.94029</v>
       </c>
       <c r="J2" t="n">
-        <v>815.99</v>
+        <v>1209.86377</v>
       </c>
       <c r="K2" t="n">
-        <v>493.15</v>
+        <v>454.9287</v>
       </c>
       <c r="L2" t="n">
-        <v>1012.57</v>
+        <v>1746.65639</v>
       </c>
       <c r="M2" t="n">
-        <v>13336.06</v>
+        <v>25626.19217</v>
       </c>
       <c r="N2" t="n">
-        <v>616.46</v>
+        <v>2484.32479</v>
       </c>
       <c r="O2" t="n">
-        <v>1244.45</v>
+        <v>2451.46287</v>
       </c>
       <c r="P2" t="n">
-        <v>472.65</v>
+        <v>613.65243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3023.96</v>
+        <v>3928.00727</v>
       </c>
       <c r="C3" t="n">
-        <v>675.55</v>
+        <v>1312.87757</v>
       </c>
       <c r="D3" t="n">
-        <v>584.29</v>
+        <v>310.52847</v>
       </c>
       <c r="E3" t="n">
-        <v>48.58</v>
+        <v>105.06331</v>
       </c>
       <c r="F3" t="n">
-        <v>163.57</v>
+        <v>167.19473</v>
       </c>
       <c r="G3" t="n">
-        <v>419.76</v>
+        <v>1020.05789</v>
       </c>
       <c r="H3" t="n">
-        <v>4276.04</v>
+        <v>11246.68149</v>
       </c>
       <c r="I3" t="n">
-        <v>92.31</v>
+        <v>118.99872</v>
       </c>
       <c r="J3" t="n">
-        <v>899.96</v>
+        <v>1127.87854</v>
       </c>
       <c r="K3" t="n">
-        <v>504.94</v>
+        <v>463.95224</v>
       </c>
       <c r="L3" t="n">
-        <v>936.38</v>
+        <v>1719.37809</v>
       </c>
       <c r="M3" t="n">
-        <v>14249.8</v>
+        <v>27296.49393</v>
       </c>
       <c r="N3" t="n">
-        <v>774.5</v>
+        <v>2619.41506</v>
       </c>
       <c r="O3" t="n">
-        <v>1347.51</v>
+        <v>2482.84189</v>
       </c>
       <c r="P3" t="n">
-        <v>502.45</v>
+        <v>673.61866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2900.33</v>
+        <v>3929.049</v>
       </c>
       <c r="C4" t="n">
-        <v>733.48</v>
+        <v>1454.63856</v>
       </c>
       <c r="D4" t="n">
-        <v>553.9299999999999</v>
+        <v>275.58143</v>
       </c>
       <c r="E4" t="n">
-        <v>83.61</v>
+        <v>143.80688</v>
       </c>
       <c r="F4" t="n">
-        <v>149.08</v>
+        <v>146.11157</v>
       </c>
       <c r="G4" t="n">
-        <v>487.55</v>
+        <v>999.46581</v>
       </c>
       <c r="H4" t="n">
-        <v>4638.86</v>
+        <v>10874.35682</v>
       </c>
       <c r="I4" t="n">
-        <v>95.25</v>
+        <v>97.5779</v>
       </c>
       <c r="J4" t="n">
-        <v>973.16</v>
+        <v>1082.13472</v>
       </c>
       <c r="K4" t="n">
-        <v>428.08</v>
+        <v>416.39795</v>
       </c>
       <c r="L4" t="n">
-        <v>1145</v>
+        <v>1813.94545</v>
       </c>
       <c r="M4" t="n">
-        <v>15078.17</v>
+        <v>26925.53229</v>
       </c>
       <c r="N4" t="n">
-        <v>920.98</v>
+        <v>2620.74774</v>
       </c>
       <c r="O4" t="n">
-        <v>1470.46</v>
+        <v>2465.6454</v>
       </c>
       <c r="P4" t="n">
-        <v>498.4</v>
+        <v>606.0730600000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3078.25</v>
+        <v>3899.06861</v>
       </c>
       <c r="C5" t="n">
-        <v>723.12</v>
+        <v>1414.53994</v>
       </c>
       <c r="D5" t="n">
-        <v>538.66</v>
+        <v>278.71518</v>
       </c>
       <c r="E5" t="n">
-        <v>73.34</v>
+        <v>167.80563</v>
       </c>
       <c r="F5" t="n">
-        <v>153.47</v>
+        <v>133.75327</v>
       </c>
       <c r="G5" t="n">
-        <v>637.89</v>
+        <v>1033.20907</v>
       </c>
       <c r="H5" t="n">
-        <v>5055.4</v>
+        <v>10861.68134</v>
       </c>
       <c r="I5" t="n">
-        <v>100.31</v>
+        <v>96.31466</v>
       </c>
       <c r="J5" t="n">
-        <v>1029.34</v>
+        <v>1082.87074</v>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>423.08359</v>
       </c>
       <c r="L5" t="n">
-        <v>1366.51</v>
+        <v>1871.82464</v>
       </c>
       <c r="M5" t="n">
-        <v>16323.41</v>
+        <v>26702.85319</v>
       </c>
       <c r="N5" t="n">
-        <v>1038.68</v>
+        <v>2550.82902</v>
       </c>
       <c r="O5" t="n">
-        <v>1655.45</v>
+        <v>2389.42595</v>
       </c>
       <c r="P5" t="n">
-        <v>507.99</v>
+        <v>499.73155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3322</v>
+        <v>3767.58876</v>
       </c>
       <c r="C6" t="n">
-        <v>832.76</v>
+        <v>1364.84604</v>
       </c>
       <c r="D6" t="n">
-        <v>573.87</v>
+        <v>233.14897</v>
       </c>
       <c r="E6" t="n">
-        <v>89.87</v>
+        <v>192.32329</v>
       </c>
       <c r="F6" t="n">
-        <v>152.83</v>
+        <v>132.31554</v>
       </c>
       <c r="G6" t="n">
-        <v>661.51</v>
+        <v>985.34664</v>
       </c>
       <c r="H6" t="n">
-        <v>5712.98</v>
+        <v>10596.2602</v>
       </c>
       <c r="I6" t="n">
-        <v>98.43000000000001</v>
+        <v>96.34529999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>1099.64</v>
+        <v>1114.23548</v>
       </c>
       <c r="K6" t="n">
-        <v>409.76</v>
+        <v>338.72513</v>
       </c>
       <c r="L6" t="n">
-        <v>1634.93</v>
+        <v>1457.68392</v>
       </c>
       <c r="M6" t="n">
-        <v>18109.94</v>
+        <v>24934.31113</v>
       </c>
       <c r="N6" t="n">
-        <v>1196.02</v>
+        <v>2115.20408</v>
       </c>
       <c r="O6" t="n">
-        <v>1789.64</v>
+        <v>2139.0129</v>
       </c>
       <c r="P6" t="n">
-        <v>535.7</v>
+        <v>401.27488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3237.38</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1002.46</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>536.0599999999999</v>
-      </c>
-      <c r="E7" t="n">
-        <v>98.75</v>
-      </c>
+        <v>159.11319</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>133.01</v>
+        <v>90.82911</v>
       </c>
       <c r="G7" t="n">
-        <v>738.3099999999999</v>
+        <v>760.28463</v>
       </c>
       <c r="H7" t="n">
-        <v>6373.83</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103.82</v>
-      </c>
+        <v>8867.539210000001</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>1184.95</v>
+        <v>1056.67491</v>
       </c>
       <c r="K7" t="n">
-        <v>362.94</v>
+        <v>356.4866</v>
       </c>
       <c r="L7" t="n">
-        <v>1655.1</v>
+        <v>1012.54255</v>
       </c>
       <c r="M7" t="n">
-        <v>19346.12</v>
+        <v>21462.54457</v>
       </c>
       <c r="N7" t="n">
-        <v>1385.78</v>
+        <v>1751.83901</v>
       </c>
       <c r="O7" t="n">
-        <v>1989.31</v>
+        <v>1666.87755</v>
       </c>
       <c r="P7" t="n">
-        <v>544.42</v>
+        <v>319.56973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3437.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1020.52</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>535.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>142.76</v>
-      </c>
+        <v>187.93606</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>138.83</v>
+        <v>79.73618999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>822.34</v>
+        <v>785.38874</v>
       </c>
       <c r="H8" t="n">
-        <v>6728.49</v>
-      </c>
-      <c r="I8" t="n">
-        <v>99.36</v>
-      </c>
+        <v>8252.671189999999</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1180.15</v>
+        <v>1010.85452</v>
       </c>
       <c r="K8" t="n">
-        <v>393.28</v>
+        <v>378.24408</v>
       </c>
       <c r="L8" t="n">
-        <v>1553.16</v>
+        <v>1070.85549</v>
       </c>
       <c r="M8" t="n">
-        <v>20321.62</v>
+        <v>21253.39796</v>
       </c>
       <c r="N8" t="n">
-        <v>1547.74</v>
+        <v>1912.44402</v>
       </c>
       <c r="O8" t="n">
-        <v>2160.23</v>
+        <v>1508.40389</v>
       </c>
       <c r="P8" t="n">
-        <v>562.0599999999999</v>
+        <v>268.37158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3660.30540000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1112.32555</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>516.54466</v>
-      </c>
-      <c r="E9" t="n">
-        <v>144.3998</v>
-      </c>
+        <v>199.51556</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>139.84862</v>
+        <v>80.29129</v>
       </c>
       <c r="G9" t="n">
-        <v>865.49754</v>
+        <v>865.1757700000001</v>
       </c>
       <c r="H9" t="n">
-        <v>7416.32316</v>
-      </c>
-      <c r="I9" t="n">
-        <v>101.77471</v>
-      </c>
+        <v>9707.15603</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1158.31436</v>
+        <v>915.33887</v>
       </c>
       <c r="K9" t="n">
-        <v>403.27573</v>
+        <v>290.97012</v>
       </c>
       <c r="L9" t="n">
-        <v>1671.98869</v>
+        <v>1538.90066</v>
       </c>
       <c r="M9" t="n">
-        <v>21856.13106</v>
+        <v>24072.2334</v>
       </c>
       <c r="N9" t="n">
-        <v>1727.51504</v>
+        <v>2169.03365</v>
       </c>
       <c r="O9" t="n">
-        <v>2328.88601</v>
+        <v>1600.57154</v>
       </c>
       <c r="P9" t="n">
-        <v>609.13179</v>
+        <v>289.34372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3601.51478</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1147.95192</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>413.53896</v>
-      </c>
-      <c r="E10" t="n">
-        <v>149.81103</v>
-      </c>
+        <v>164.56563</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>158.36357</v>
+        <v>82.65031999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>860.08519</v>
+        <v>906.0329</v>
       </c>
       <c r="H10" t="n">
-        <v>8360.280000000001</v>
-      </c>
-      <c r="I10" t="n">
-        <v>112.15308</v>
-      </c>
+        <v>10963.65408</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1162.35621</v>
+        <v>862.1988700000001</v>
       </c>
       <c r="K10" t="n">
-        <v>436.22766</v>
+        <v>268.84602</v>
       </c>
       <c r="L10" t="n">
-        <v>1994.15441</v>
+        <v>1608.10191</v>
       </c>
       <c r="M10" t="n">
-        <v>23360.31839</v>
+        <v>25784.93965727</v>
       </c>
       <c r="N10" t="n">
-        <v>1930.91923</v>
+        <v>2250.31905</v>
       </c>
       <c r="O10" t="n">
-        <v>2373.85597</v>
+        <v>1656.11165</v>
       </c>
       <c r="P10" t="n">
-        <v>659.1063799999999</v>
+        <v>351.87846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3456.24</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1172.47</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>352.68</v>
-      </c>
-      <c r="E11" t="n">
-        <v>171.27</v>
-      </c>
+        <v>153.73653</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>192.54</v>
+        <v>89.69332</v>
       </c>
       <c r="G11" t="n">
-        <v>839.52</v>
+        <v>925.5746</v>
       </c>
       <c r="H11" t="n">
-        <v>8478.190000000001</v>
-      </c>
-      <c r="I11" t="n">
-        <v>96.53</v>
-      </c>
+        <v>11334.98544</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1192.34</v>
+        <v>869.22081</v>
       </c>
       <c r="K11" t="n">
-        <v>432.55</v>
+        <v>389.86971</v>
       </c>
       <c r="L11" t="n">
-        <v>1735.97</v>
+        <v>1552.03952</v>
       </c>
       <c r="M11" t="n">
-        <v>23354.5</v>
+        <v>26992.8125</v>
       </c>
       <c r="N11" t="n">
-        <v>2324.84</v>
+        <v>2372.70193</v>
       </c>
       <c r="O11" t="n">
-        <v>2374.12</v>
+        <v>1793.68884</v>
       </c>
       <c r="P11" t="n">
-        <v>535.25</v>
+        <v>453.41484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3741.51139</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1193.52668</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>340.40987</v>
-      </c>
-      <c r="E12" t="n">
-        <v>150.13592</v>
-      </c>
+        <v>95.13573</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>183.7345</v>
+        <v>73.57661</v>
       </c>
       <c r="G12" t="n">
-        <v>939.5317700000001</v>
+        <v>888.14691</v>
       </c>
       <c r="H12" t="n">
-        <v>10015.5128</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100.94029</v>
-      </c>
+        <v>11131.54514</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>1209.86377</v>
+        <v>822.94645</v>
       </c>
       <c r="K12" t="n">
-        <v>454.9287</v>
+        <v>410.82209</v>
       </c>
       <c r="L12" t="n">
-        <v>1746.65639</v>
+        <v>1391.53306</v>
       </c>
       <c r="M12" t="n">
-        <v>25626.19217</v>
+        <v>27380.42382</v>
       </c>
       <c r="N12" t="n">
-        <v>2484.32479</v>
+        <v>2460.80176</v>
       </c>
       <c r="O12" t="n">
-        <v>2451.46287</v>
+        <v>1824.73681</v>
       </c>
       <c r="P12" t="n">
-        <v>613.65243</v>
+        <v>445.11276</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3928.00727</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1312.87757</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>310.52847</v>
-      </c>
-      <c r="E13" t="n">
-        <v>105.06331</v>
-      </c>
+        <v>86.83797</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>167.19473</v>
+        <v>55.36802</v>
       </c>
       <c r="G13" t="n">
-        <v>1020.05789</v>
+        <v>786.35814</v>
       </c>
       <c r="H13" t="n">
-        <v>11246.68149</v>
-      </c>
-      <c r="I13" t="n">
-        <v>118.99872</v>
-      </c>
+        <v>12739.21524</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1127.87854</v>
+        <v>773.8167999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>463.95224</v>
+        <v>359.80833</v>
       </c>
       <c r="L13" t="n">
-        <v>1719.37809</v>
+        <v>1346.06347</v>
       </c>
       <c r="M13" t="n">
-        <v>27296.49393</v>
+        <v>29930.247</v>
       </c>
       <c r="N13" t="n">
-        <v>2619.41506</v>
+        <v>2404.36597</v>
       </c>
       <c r="O13" t="n">
-        <v>2482.84189</v>
+        <v>1883.78776</v>
       </c>
       <c r="P13" t="n">
-        <v>673.61866</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3929.049</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1454.63856</v>
-      </c>
-      <c r="D14" t="n">
-        <v>275.58143</v>
-      </c>
-      <c r="E14" t="n">
-        <v>143.80688</v>
-      </c>
-      <c r="F14" t="n">
-        <v>146.11157</v>
-      </c>
-      <c r="G14" t="n">
-        <v>999.46581</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10874.35682</v>
-      </c>
-      <c r="I14" t="n">
-        <v>97.5779</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1082.13472</v>
-      </c>
-      <c r="K14" t="n">
-        <v>416.39795</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1813.94545</v>
-      </c>
-      <c r="M14" t="n">
-        <v>26925.53229</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2620.74774</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2465.6454</v>
-      </c>
-      <c r="P14" t="n">
-        <v>606.0730600000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3899.06861</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1414.53994</v>
-      </c>
-      <c r="D15" t="n">
-        <v>278.71518</v>
-      </c>
-      <c r="E15" t="n">
-        <v>167.80563</v>
-      </c>
-      <c r="F15" t="n">
-        <v>133.75327</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1033.20907</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10861.68134</v>
-      </c>
-      <c r="I15" t="n">
-        <v>96.31466</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1082.87074</v>
-      </c>
-      <c r="K15" t="n">
-        <v>423.08359</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1871.82464</v>
-      </c>
-      <c r="M15" t="n">
-        <v>26702.85319</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2550.82902</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2389.42595</v>
-      </c>
-      <c r="P15" t="n">
-        <v>499.73155</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3767.58876</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1364.84604</v>
-      </c>
-      <c r="D16" t="n">
-        <v>233.14897</v>
-      </c>
-      <c r="E16" t="n">
-        <v>192.32329</v>
-      </c>
-      <c r="F16" t="n">
-        <v>132.31554</v>
-      </c>
-      <c r="G16" t="n">
-        <v>985.34664</v>
-      </c>
-      <c r="H16" t="n">
-        <v>10596.2602</v>
-      </c>
-      <c r="I16" t="n">
-        <v>96.34529999999999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1114.23548</v>
-      </c>
-      <c r="K16" t="n">
-        <v>338.72513</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1457.68392</v>
-      </c>
-      <c r="M16" t="n">
-        <v>24934.31113</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2115.20408</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2139.0129</v>
-      </c>
-      <c r="P16" t="n">
-        <v>401.27488</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>159.11319</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>90.82911</v>
-      </c>
-      <c r="G17" t="n">
-        <v>760.28463</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8867.539210000001</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1056.67491</v>
-      </c>
-      <c r="K17" t="n">
-        <v>356.4866</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1012.54255</v>
-      </c>
-      <c r="M17" t="n">
-        <v>21462.54457</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1751.83901</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1666.87755</v>
-      </c>
-      <c r="P17" t="n">
-        <v>319.56973</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>187.93606</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>79.73618999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>785.38874</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8252.671189999999</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1010.85452</v>
-      </c>
-      <c r="K18" t="n">
-        <v>378.24408</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1070.85549</v>
-      </c>
-      <c r="M18" t="n">
-        <v>21253.39796</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1912.44402</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1508.40389</v>
-      </c>
-      <c r="P18" t="n">
-        <v>268.37158</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>199.51556</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>80.29129</v>
-      </c>
-      <c r="G19" t="n">
-        <v>865.1757700000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9707.15603</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>915.33887</v>
-      </c>
-      <c r="K19" t="n">
-        <v>290.97012</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1538.90066</v>
-      </c>
-      <c r="M19" t="n">
-        <v>24072.2334</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2169.03365</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1600.57154</v>
-      </c>
-      <c r="P19" t="n">
-        <v>289.34372</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>164.56563</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>82.65031999999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>906.0329</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10963.65408</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>862.1988700000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>268.84602</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1608.10191</v>
-      </c>
-      <c r="M20" t="n">
-        <v>25784.93965727</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2250.31905</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1656.11165</v>
-      </c>
-      <c r="P20" t="n">
-        <v>351.87846</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>153.73653</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>89.69332</v>
-      </c>
-      <c r="G21" t="n">
-        <v>925.5746</v>
-      </c>
-      <c r="H21" t="n">
-        <v>11334.98544</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>869.22081</v>
-      </c>
-      <c r="K21" t="n">
-        <v>389.86971</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1552.03952</v>
-      </c>
-      <c r="M21" t="n">
-        <v>26992.8125</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2372.70193</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1793.68884</v>
-      </c>
-      <c r="P21" t="n">
-        <v>453.41484</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>95.13573</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>73.57661</v>
-      </c>
-      <c r="G22" t="n">
-        <v>888.14691</v>
-      </c>
-      <c r="H22" t="n">
-        <v>11131.54514</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>822.94645</v>
-      </c>
-      <c r="K22" t="n">
-        <v>410.82209</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1391.53306</v>
-      </c>
-      <c r="M22" t="n">
-        <v>27380.42382</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2460.80176</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1824.73681</v>
-      </c>
-      <c r="P22" t="n">
-        <v>445.11276</v>
+        <v>403.41727</v>
       </c>
     </row>
   </sheetData>
